--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanja\Desktop\Kurs\Java\Projekat selenium\SeleniumRepo\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA79410-5259-4D11-94E5-D223ADCCA868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4051558D-68A3-4442-9DCA-CCB038AB7D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{070EA7AA-3B45-4951-8FA3-61990DC4AB17}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{070EA7AA-3B45-4951-8FA3-61990DC4AB17}"/>
   </bookViews>
   <sheets>
     <sheet name="Test suit" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="AddProductInCart" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A12:E25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="110">
   <si>
     <t>TC1</t>
   </si>
@@ -104,9 +100,6 @@
     <t>password is entered</t>
   </si>
   <si>
-    <t>sanjaaopacic@hotmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invalid e-mail adress              </t>
   </si>
   <si>
@@ -147,12 +140,6 @@
   </si>
   <si>
     <t>An email address required.</t>
-  </si>
-  <si>
-    <t>page is present</t>
-  </si>
-  <si>
-    <t>Sign in</t>
   </si>
   <si>
     <t>Sign in button is present</t>
@@ -364,13 +351,19 @@
   </si>
   <si>
     <t>Click "X" under Delite</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>sanjaaopacichotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +406,13 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,6 +473,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F658050-17A2-4987-87B1-6AAB0884CA47}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
@@ -909,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -925,7 +926,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -941,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -966,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1030,8 +1031,8 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
+      <c r="C20" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -1046,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>23</v>
@@ -1062,7 +1063,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1078,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1103,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1168,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1215,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1240,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1302,11 +1303,11 @@
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -1315,11 +1316,11 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -1332,7 +1333,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -1348,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1370,10 +1371,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -1442,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1591,11 +1592,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{3B79D94A-2371-4497-8731-4716AC430022}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{7B25A679-809A-4349-870A-5996C21A8E0E}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{D15D2447-1A3D-4A15-8DCE-3732803C80ED}"/>
+    <hyperlink ref="C33" r:id="rId2" xr:uid="{D15D2447-1A3D-4A15-8DCE-3732803C80ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1603,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3AFDCA-A437-4C8E-929B-ED56E7DC3843}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1683,11 +1683,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1696,11 +1696,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1709,13 +1709,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1724,13 +1724,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1739,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1754,13 +1754,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>21000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1768,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,11 +1782,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1814,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1832,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,11 +1840,11 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1852,11 +1852,11 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,11 +1878,11 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1981,11 +1981,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1994,13 +1994,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2009,13 +2009,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2024,28 +2024,28 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2054,41 +2054,41 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2191,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2205,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2250,35 +2250,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2286,15 +2286,15 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
